--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/年間勤務表（1ヶ月）.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/年間勤務表（1ヶ月）.xlsx
@@ -32,6 +32,7 @@
     <definedName name="def" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
     <definedName name="empInfoLabel">★年間勤務表（1ヶ月）!$A$3</definedName>
     <definedName name="employeeRange">★年間勤務表（1ヶ月）!$A$5:$X$14</definedName>
+    <definedName name="item">★年間勤務表（1ヶ月）!$C$5</definedName>
     <definedName name="kkkk" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="kkkk" hidden="1">#REF!</definedName>
     <definedName name="month10thLabel">★年間勤務表（1ヶ月）!$M$3</definedName>
@@ -1249,7 +1250,7 @@
   <dimension ref="A1:X25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15" customHeight="1"/>

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/年間勤務表（1ヶ月）.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/年間勤務表（1ヶ月）.xlsx
@@ -1249,7 +1249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1911,7 +1911,7 @@
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"MSゴシック,Regular"あいうえおあいうえおあいうえおあ株式会社
-&amp;C&amp;"MSゴシック,Regular"&amp;16★年間勤務表（1ヶ月）&amp;R&amp;"MSゴシック,Regular"&amp;[COM_NAME] &amp;D　&amp;T　
+&amp;C&amp;"MSゴシック,Regular"&amp;16★年間勤務表（1ヶ月）&amp;R&amp;"MSゴシック,Regular"&amp;D　&amp;T　
 page&amp;P</oddHeader>
   </headerFooter>
 </worksheet>

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/年間勤務表（1ヶ月）.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/年間勤務表（1ヶ月）.xlsx
@@ -30,8 +30,10 @@
     <definedName name="abc" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
     <definedName name="def" localSheetId="0" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
     <definedName name="def" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
+    <definedName name="empInfo">★年間勤務表（1ヶ月）!$A$5:$B$14</definedName>
     <definedName name="empInfoLabel">★年間勤務表（1ヶ月）!$A$3</definedName>
-    <definedName name="employeeRange">★年間勤務表（1ヶ月）!$A$5:$X$14</definedName>
+    <definedName name="employeeRange">★年間勤務表（1ヶ月）!$A$5:$Y$14</definedName>
+    <definedName name="empName">★年間勤務表（1ヶ月）!$A$5</definedName>
     <definedName name="item">★年間勤務表（1ヶ月）!$C$5</definedName>
     <definedName name="kkkk" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="kkkk" hidden="1">#REF!</definedName>
@@ -50,11 +52,19 @@
     <definedName name="month7thLabel">★年間勤務表（1ヶ月）!$J$3</definedName>
     <definedName name="month8thLabel">★年間勤務表（1ヶ月）!$K$3</definedName>
     <definedName name="month9thLabel">★年間勤務表（1ヶ月）!$L$3</definedName>
+    <definedName name="monthGroup1st">★年間勤務表（1ヶ月）!$S$3</definedName>
+    <definedName name="monthGroup2nd">★年間勤務表（1ヶ月）!$T$3</definedName>
+    <definedName name="monthGroup3rd">★年間勤務表（1ヶ月）!$U$3</definedName>
+    <definedName name="monthGroup4th">★年間勤務表（1ヶ月）!$V$3</definedName>
+    <definedName name="monthGroup5th">★年間勤務表（1ヶ月）!$W$3</definedName>
+    <definedName name="monthGroup6th">★年間勤務表（1ヶ月）!$X$3</definedName>
+    <definedName name="monthGroup7th">★年間勤務表（1ヶ月）!$Y$3</definedName>
+    <definedName name="outputAgreementTime">★年間勤務表（1ヶ月）!$S$2</definedName>
     <definedName name="period">★年間勤務表（1ヶ月）!$A$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">★年間勤務表（1ヶ月）!$1:$3</definedName>
     <definedName name="workplace">★年間勤務表（1ヶ月）!$A$4</definedName>
-    <definedName name="workplaceRange">★年間勤務表（1ヶ月）!$A$4:$X$14</definedName>
-    <definedName name="workplaceRow">★年間勤務表（1ヶ月）!$A$4:$X$4</definedName>
+    <definedName name="workplaceRange">★年間勤務表（1ヶ月）!$A$4:$Y$14</definedName>
+    <definedName name="workplaceRow">★年間勤務表（1ヶ月）!$A$4:$Y$4</definedName>
     <definedName name="wrn.MIND." localSheetId="0" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
     <definedName name="wrn.MIND." hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
     <definedName name="あああ" localSheetId="0" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
@@ -69,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>年間</t>
     <phoneticPr fontId="3"/>
@@ -78,19 +88,6 @@
     <t>超過</t>
     <rPh sb="0" eb="2">
       <t>チョウカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>社員/雇用/職位</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>コヨウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ショクイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -338,7 +335,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -593,6 +590,15 @@
       <right style="dotted">
         <color auto="1"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -721,7 +727,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -844,6 +850,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1247,10 +1256,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X25"/>
+  <dimension ref="A1:Z25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15" customHeight="1"/>
@@ -1260,17 +1269,17 @@
     <col min="4" max="14" width="5.42578125" style="1" customWidth="1"/>
     <col min="15" max="17" width="5.42578125" style="2" customWidth="1"/>
     <col min="18" max="18" width="3.7109375" style="2" customWidth="1"/>
-    <col min="19" max="23" width="5.42578125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="5.42578125" style="2" customWidth="1"/>
-    <col min="25" max="16384" width="3.140625" style="2"/>
+    <col min="19" max="24" width="5.42578125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="5.42578125" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="3.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" customHeight="1" thickBot="1">
-      <c r="A1" s="41"/>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+    <row r="1" spans="1:26" ht="15" customHeight="1" thickBot="1">
+      <c r="A1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -1285,8 +1294,9 @@
       <c r="U1" s="5"/>
       <c r="V1" s="5"/>
       <c r="W1" s="5"/>
-    </row>
-    <row r="2" spans="1:24" ht="15" customHeight="1">
+      <c r="X1" s="5"/>
+    </row>
+    <row r="2" spans="1:26" ht="15" customHeight="1">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="9"/>
@@ -1303,7 +1313,7 @@
       <c r="N2" s="36"/>
       <c r="O2" s="36"/>
       <c r="P2" s="35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q2" s="23" t="s">
         <v>0</v>
@@ -1316,13 +1326,13 @@
       <c r="U2" s="16"/>
       <c r="V2" s="16"/>
       <c r="W2" s="16"/>
-      <c r="X2" s="17"/>
-    </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="49"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="41"/>
+    </row>
+    <row r="3" spans="1:26" ht="15" customHeight="1" thickBot="1">
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
       <c r="C3" s="40"/>
       <c r="D3" s="37"/>
       <c r="E3" s="37"/>
@@ -1337,26 +1347,28 @@
       <c r="N3" s="37"/>
       <c r="O3" s="37"/>
       <c r="P3" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q3" s="11"/>
       <c r="R3" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S3" s="18"/>
       <c r="T3" s="18"/>
       <c r="U3" s="18"/>
       <c r="V3" s="18"/>
       <c r="W3" s="18"/>
-      <c r="X3" s="19"/>
-    </row>
-    <row r="4" spans="1:24" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="43"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="45"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="41"/>
+    </row>
+    <row r="4" spans="1:26" ht="15" customHeight="1" thickBot="1">
+      <c r="A4" s="44"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="46"/>
       <c r="G4" s="38"/>
       <c r="H4" s="38"/>
       <c r="I4" s="24"/>
@@ -1374,11 +1386,12 @@
       <c r="U4" s="24"/>
       <c r="V4" s="22"/>
       <c r="W4" s="22"/>
-      <c r="X4" s="20"/>
-    </row>
-    <row r="5" spans="1:24" ht="15" customHeight="1">
-      <c r="A5" s="50"/>
-      <c r="B5" s="51"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="20"/>
+    </row>
+    <row r="5" spans="1:26" ht="15" customHeight="1">
+      <c r="A5" s="51"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="25"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -1401,10 +1414,11 @@
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
-    </row>
-    <row r="6" spans="1:24" ht="15" customHeight="1">
-      <c r="A6" s="46"/>
-      <c r="B6" s="47"/>
+      <c r="Y5" s="3"/>
+    </row>
+    <row r="6" spans="1:26" ht="15" customHeight="1">
+      <c r="A6" s="47"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="26"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -1427,10 +1441,11 @@
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
-    </row>
-    <row r="7" spans="1:24" ht="15" customHeight="1">
-      <c r="A7" s="46"/>
-      <c r="B7" s="48"/>
+      <c r="Y6" s="7"/>
+    </row>
+    <row r="7" spans="1:26" ht="15" customHeight="1">
+      <c r="A7" s="47"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="27"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -1453,8 +1468,9 @@
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
-    </row>
-    <row r="8" spans="1:24" ht="15" customHeight="1">
+      <c r="Y7" s="4"/>
+    </row>
+    <row r="8" spans="1:26" ht="15" customHeight="1">
       <c r="A8" s="32"/>
       <c r="B8" s="33"/>
       <c r="C8" s="28"/>
@@ -1479,8 +1495,9 @@
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
-    </row>
-    <row r="9" spans="1:24" ht="15" customHeight="1">
+      <c r="Y8" s="7"/>
+    </row>
+    <row r="9" spans="1:26" ht="15" customHeight="1">
       <c r="A9" s="32"/>
       <c r="B9" s="33"/>
       <c r="C9" s="29"/>
@@ -1505,8 +1522,9 @@
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
-    </row>
-    <row r="10" spans="1:24" ht="15" customHeight="1">
+      <c r="Y9" s="4"/>
+    </row>
+    <row r="10" spans="1:26" ht="15" customHeight="1">
       <c r="A10" s="32"/>
       <c r="B10" s="33"/>
       <c r="C10" s="28"/>
@@ -1531,8 +1549,9 @@
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
-    </row>
-    <row r="11" spans="1:24" ht="15" customHeight="1">
+      <c r="Y10" s="7"/>
+    </row>
+    <row r="11" spans="1:26" ht="15" customHeight="1">
       <c r="A11" s="32"/>
       <c r="B11" s="33"/>
       <c r="C11" s="29"/>
@@ -1557,8 +1576,9 @@
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
-    </row>
-    <row r="12" spans="1:24" ht="15" customHeight="1">
+      <c r="Y11" s="4"/>
+    </row>
+    <row r="12" spans="1:26" ht="15" customHeight="1">
       <c r="A12" s="32"/>
       <c r="B12" s="33"/>
       <c r="C12" s="28"/>
@@ -1583,8 +1603,9 @@
       <c r="V12" s="7"/>
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
-    </row>
-    <row r="13" spans="1:24" ht="15" customHeight="1">
+      <c r="Y12" s="7"/>
+    </row>
+    <row r="13" spans="1:26" ht="15" customHeight="1">
       <c r="A13" s="32"/>
       <c r="B13" s="33"/>
       <c r="C13" s="29"/>
@@ -1609,8 +1630,9 @@
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
-    </row>
-    <row r="14" spans="1:24" ht="15" customHeight="1" thickBot="1">
+      <c r="Y13" s="4"/>
+    </row>
+    <row r="14" spans="1:26" ht="15" customHeight="1" thickBot="1">
       <c r="A14" s="31"/>
       <c r="B14" s="34"/>
       <c r="C14" s="30"/>
@@ -1635,8 +1657,9 @@
       <c r="V14" s="8"/>
       <c r="W14" s="8"/>
       <c r="X14" s="8"/>
-    </row>
-    <row r="16" spans="1:24" ht="15" customHeight="1">
+      <c r="Y14" s="8"/>
+    </row>
+    <row r="16" spans="1:26" ht="15" customHeight="1">
       <c r="A16" s="39"/>
       <c r="B16" s="39"/>
       <c r="C16" s="39"/>
@@ -1661,8 +1684,9 @@
       <c r="V16" s="39"/>
       <c r="W16" s="39"/>
       <c r="X16" s="39"/>
-    </row>
-    <row r="17" spans="1:24" ht="15" customHeight="1">
+      <c r="Y16" s="39"/>
+    </row>
+    <row r="17" spans="1:25" ht="15" customHeight="1">
       <c r="A17" s="39"/>
       <c r="B17" s="39"/>
       <c r="C17" s="39"/>
@@ -1687,8 +1711,9 @@
       <c r="V17" s="39"/>
       <c r="W17" s="39"/>
       <c r="X17" s="39"/>
-    </row>
-    <row r="18" spans="1:24" ht="15" customHeight="1">
+      <c r="Y17" s="39"/>
+    </row>
+    <row r="18" spans="1:25" ht="15" customHeight="1">
       <c r="A18" s="39"/>
       <c r="B18" s="39"/>
       <c r="C18" s="39"/>
@@ -1713,8 +1738,9 @@
       <c r="V18" s="39"/>
       <c r="W18" s="39"/>
       <c r="X18" s="39"/>
-    </row>
-    <row r="19" spans="1:24" ht="15" customHeight="1">
+      <c r="Y18" s="39"/>
+    </row>
+    <row r="19" spans="1:25" ht="15" customHeight="1">
       <c r="A19" s="39"/>
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
@@ -1739,8 +1765,9 @@
       <c r="V19" s="39"/>
       <c r="W19" s="39"/>
       <c r="X19" s="39"/>
-    </row>
-    <row r="20" spans="1:24" ht="15" customHeight="1">
+      <c r="Y19" s="39"/>
+    </row>
+    <row r="20" spans="1:25" ht="15" customHeight="1">
       <c r="A20" s="39"/>
       <c r="B20" s="39"/>
       <c r="C20" s="39"/>
@@ -1765,8 +1792,9 @@
       <c r="V20" s="39"/>
       <c r="W20" s="39"/>
       <c r="X20" s="39"/>
-    </row>
-    <row r="21" spans="1:24" ht="15" customHeight="1">
+      <c r="Y20" s="39"/>
+    </row>
+    <row r="21" spans="1:25" ht="15" customHeight="1">
       <c r="A21" s="39"/>
       <c r="B21" s="39"/>
       <c r="C21" s="39"/>
@@ -1791,8 +1819,9 @@
       <c r="V21" s="39"/>
       <c r="W21" s="39"/>
       <c r="X21" s="39"/>
-    </row>
-    <row r="22" spans="1:24" ht="15" customHeight="1">
+      <c r="Y21" s="39"/>
+    </row>
+    <row r="22" spans="1:25" ht="15" customHeight="1">
       <c r="A22" s="39"/>
       <c r="B22" s="39"/>
       <c r="C22" s="39"/>
@@ -1817,8 +1846,9 @@
       <c r="V22" s="39"/>
       <c r="W22" s="39"/>
       <c r="X22" s="39"/>
-    </row>
-    <row r="23" spans="1:24" ht="15" customHeight="1">
+      <c r="Y22" s="39"/>
+    </row>
+    <row r="23" spans="1:25" ht="15" customHeight="1">
       <c r="A23" s="39"/>
       <c r="B23" s="39"/>
       <c r="C23" s="39"/>
@@ -1843,8 +1873,9 @@
       <c r="V23" s="39"/>
       <c r="W23" s="39"/>
       <c r="X23" s="39"/>
-    </row>
-    <row r="24" spans="1:24" ht="15" customHeight="1">
+      <c r="Y23" s="39"/>
+    </row>
+    <row r="24" spans="1:25" ht="15" customHeight="1">
       <c r="A24" s="39"/>
       <c r="B24" s="39"/>
       <c r="C24" s="39"/>
@@ -1869,8 +1900,9 @@
       <c r="V24" s="39"/>
       <c r="W24" s="39"/>
       <c r="X24" s="39"/>
-    </row>
-    <row r="25" spans="1:24" ht="15" customHeight="1">
+      <c r="Y24" s="39"/>
+    </row>
+    <row r="25" spans="1:25" ht="15" customHeight="1">
       <c r="A25" s="39"/>
       <c r="B25" s="39"/>
       <c r="C25" s="39"/>
@@ -1895,6 +1927,7 @@
       <c r="V25" s="39"/>
       <c r="W25" s="39"/>
       <c r="X25" s="39"/>
+      <c r="Y25" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1907,8 +1940,8 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.98425196850393704" bottom="0.39370078740157499" header="0.39370078740157499" footer="0.31496062992126"/>
+  <pageSetup paperSize="9" scale="95" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"MSゴシック,Regular"あいうえおあいうえおあいうえおあ株式会社
 &amp;C&amp;"MSゴシック,Regular"&amp;16★年間勤務表（1ヶ月）&amp;R&amp;"MSゴシック,Regular"&amp;D　&amp;T　

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/年間勤務表（1ヶ月）.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/年間勤務表（1ヶ月）.xlsx
@@ -52,13 +52,13 @@
     <definedName name="month7thLabel">★年間勤務表（1ヶ月）!$J$3</definedName>
     <definedName name="month8thLabel">★年間勤務表（1ヶ月）!$K$3</definedName>
     <definedName name="month9thLabel">★年間勤務表（1ヶ月）!$L$3</definedName>
-    <definedName name="monthGroup1st">★年間勤務表（1ヶ月）!$S$3</definedName>
-    <definedName name="monthGroup2nd">★年間勤務表（1ヶ月）!$T$3</definedName>
-    <definedName name="monthGroup3rd">★年間勤務表（1ヶ月）!$U$3</definedName>
-    <definedName name="monthGroup4th">★年間勤務表（1ヶ月）!$V$3</definedName>
-    <definedName name="monthGroup5th">★年間勤務表（1ヶ月）!$W$3</definedName>
-    <definedName name="monthGroup6th">★年間勤務表（1ヶ月）!$X$3</definedName>
-    <definedName name="monthGroup7th">★年間勤務表（1ヶ月）!$Y$3</definedName>
+    <definedName name="monthGroup1">★年間勤務表（1ヶ月）!$S$3</definedName>
+    <definedName name="monthGroup2">★年間勤務表（1ヶ月）!$T$3</definedName>
+    <definedName name="monthGroup3">★年間勤務表（1ヶ月）!$U$3</definedName>
+    <definedName name="monthGroup4">★年間勤務表（1ヶ月）!$V$3</definedName>
+    <definedName name="monthGroup5">★年間勤務表（1ヶ月）!$W$3</definedName>
+    <definedName name="monthGroup6">★年間勤務表（1ヶ月）!$X$3</definedName>
+    <definedName name="monthGroup7">★年間勤務表（1ヶ月）!$Y$3</definedName>
     <definedName name="outputAgreementTime">★年間勤務表（1ヶ月）!$S$2</definedName>
     <definedName name="period">★年間勤務表（1ヶ月）!$A$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">★年間勤務表（1ヶ月）!$1:$3</definedName>
@@ -1258,8 +1258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15" customHeight="1"/>

--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/年間勤務表（1ヶ月）.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/年間勤務表（1ヶ月）.xlsx
@@ -58,6 +58,7 @@
     <definedName name="monthGroup4">★年間勤務表（1ヶ月）!$V$3</definedName>
     <definedName name="monthGroup5">★年間勤務表（1ヶ月）!$W$3</definedName>
     <definedName name="monthGroup6">★年間勤務表（1ヶ月）!$X$3</definedName>
+    <definedName name="monthGroup6Range">★年間勤務表（1ヶ月）!$X$2:$X$3</definedName>
     <definedName name="monthGroup7">★年間勤務表（1ヶ月）!$Y$3</definedName>
     <definedName name="outputAgreementTime">★年間勤務表（1ヶ月）!$S$2</definedName>
     <definedName name="period">★年間勤務表（1ヶ月）!$A$1</definedName>
@@ -335,7 +336,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -590,15 +591,6 @@
       <right style="dotted">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -851,9 +843,6 @@
     <xf numFmtId="49" fontId="2" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -886,6 +875,9 @@
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="59">
@@ -1275,11 +1267,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A1" s="42"/>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
+      <c r="A1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -1328,11 +1320,11 @@
       <c r="W2" s="16"/>
       <c r="X2" s="16"/>
       <c r="Y2" s="17"/>
-      <c r="Z2" s="41"/>
+      <c r="Z2" s="52"/>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="40"/>
       <c r="D3" s="37"/>
       <c r="E3" s="37"/>
@@ -1360,15 +1352,15 @@
       <c r="W3" s="18"/>
       <c r="X3" s="18"/>
       <c r="Y3" s="19"/>
-      <c r="Z3" s="41"/>
+      <c r="Z3" s="52"/>
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="44"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="46"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="45"/>
       <c r="G4" s="38"/>
       <c r="H4" s="38"/>
       <c r="I4" s="24"/>
@@ -1390,8 +1382,8 @@
       <c r="Y4" s="20"/>
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1">
-      <c r="A5" s="51"/>
-      <c r="B5" s="52"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="51"/>
       <c r="C5" s="25"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -1417,8 +1409,8 @@
       <c r="Y5" s="3"/>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1">
-      <c r="A6" s="47"/>
-      <c r="B6" s="48"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="26"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -1444,8 +1436,8 @@
       <c r="Y6" s="7"/>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1">
-      <c r="A7" s="47"/>
-      <c r="B7" s="49"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="27"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
